--- a/Cypher_Vault/Horarios Disponibles.xlsx
+++ b/Cypher_Vault/Horarios Disponibles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27618"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javier\StudioProjects\TP_Labo_Principal\Cypher_Vault\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moras\Desktop\Proyecto profesional\TP_Labo_Principal\Cypher_Vault\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E13A398-57DF-4264-800A-4149D369B104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2195283-40F6-4F57-8884-FAF614D74612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{D6E6CA37-37D6-4C7C-8C58-3258484FDD53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11310" xr2:uid="{D6E6CA37-37D6-4C7C-8C58-3258484FDD53}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -683,8 +683,8 @@
   </sheetPr>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -753,7 +753,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>14</v>
@@ -779,7 +779,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>13</v>
@@ -805,7 +805,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>13</v>
@@ -831,7 +831,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>13</v>
@@ -857,7 +857,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>13</v>
@@ -883,7 +883,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>13</v>
@@ -909,7 +909,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>13</v>
@@ -935,7 +935,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>13</v>

--- a/Cypher_Vault/Horarios Disponibles.xlsx
+++ b/Cypher_Vault/Horarios Disponibles.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moras\Desktop\Proyecto profesional\TP_Labo_Principal\Cypher_Vault\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l\Desktop\TPFaceAuthn\Cypher_Vault\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2195283-40F6-4F57-8884-FAF614D74612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11310" xr2:uid="{D6E6CA37-37D6-4C7C-8C58-3258484FDD53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="28">
   <si>
     <t>Lunes</t>
   </si>
@@ -193,12 +192,82 @@
       <t>Javier</t>
     </r>
   </si>
+  <si>
+    <t>Alejandro/javier/Fernando</t>
+  </si>
+  <si>
+    <t>Alejandro/javier/fernando</t>
+  </si>
+  <si>
+    <r>
+      <t>Alejandro/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>javier/fernando</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Alejandro</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/javier/fernando</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Alejandro/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>javier/fernando</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Alejandro</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/javier/Fernando</t>
+    </r>
+  </si>
+  <si>
+    <t>Fernando = unicamente marque cuando no estoy despues estoy siempre</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +336,13 @@
       <color theme="9"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -677,23 +753,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C508EE2-F8ED-4262-B196-90D496B4CAB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="8" width="33.140625" style="1" customWidth="1"/>
+    <col min="2" max="8" width="33.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -719,7 +795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="5" customFormat="1" ht="34.5" customHeight="1">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -745,7 +821,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="5" customFormat="1" ht="34.5" customHeight="1">
       <c r="A3" s="4">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -753,13 +829,13 @@
         <v>12</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>14</v>
@@ -771,7 +847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="34.5" customHeight="1">
       <c r="A4" s="4">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -779,13 +855,13 @@
         <v>12</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>13</v>
@@ -797,7 +873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="34.5" customHeight="1">
       <c r="A5" s="4">
         <v>0.125</v>
       </c>
@@ -805,13 +881,13 @@
         <v>12</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>13</v>
@@ -823,7 +899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="34.5" customHeight="1">
       <c r="A6" s="4">
         <v>0.16666666666666699</v>
       </c>
@@ -831,13 +907,13 @@
         <v>12</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>13</v>
@@ -849,7 +925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="34.5" customHeight="1">
       <c r="A7" s="4">
         <v>0.20833333333333301</v>
       </c>
@@ -857,13 +933,13 @@
         <v>12</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>13</v>
@@ -875,7 +951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="5" customFormat="1" ht="34.5" customHeight="1">
       <c r="A8" s="4">
         <v>0.25</v>
       </c>
@@ -883,13 +959,13 @@
         <v>12</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>13</v>
@@ -901,7 +977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="5" customFormat="1" ht="34.5" customHeight="1">
       <c r="A9" s="4">
         <v>0.29166666666666702</v>
       </c>
@@ -909,13 +985,13 @@
         <v>12</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>13</v>
@@ -927,7 +1003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="5" customFormat="1" ht="34.5" customHeight="1">
       <c r="A10" s="4">
         <v>0.33333333333333298</v>
       </c>
@@ -935,13 +1011,13 @@
         <v>12</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>13</v>
@@ -958,7 +1034,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="1:13" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="5" customFormat="1" ht="34.5" customHeight="1">
       <c r="A11" s="4">
         <v>0.375</v>
       </c>
@@ -966,13 +1042,13 @@
         <v>12</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>13</v>
@@ -989,7 +1065,7 @@
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
     </row>
-    <row r="12" spans="1:13" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="5" customFormat="1" ht="34.5" customHeight="1">
       <c r="A12" s="4">
         <v>0.41666666666666702</v>
       </c>
@@ -997,13 +1073,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>14</v>
@@ -1020,7 +1096,7 @@
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
     </row>
-    <row r="13" spans="1:13" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="5" customFormat="1" ht="34.5" customHeight="1">
       <c r="A13" s="4">
         <v>0.45833333333333298</v>
       </c>
@@ -1028,13 +1104,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>14</v>
@@ -1051,7 +1127,7 @@
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
     </row>
-    <row r="14" spans="1:13" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="5" customFormat="1" ht="34.5" customHeight="1">
       <c r="A14" s="4">
         <v>0.5</v>
       </c>
@@ -1059,13 +1135,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>13</v>
@@ -1082,7 +1158,7 @@
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
     </row>
-    <row r="15" spans="1:13" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="5" customFormat="1" ht="34.5" customHeight="1">
       <c r="A15" s="4">
         <v>0.54166666666666696</v>
       </c>
@@ -1090,13 +1166,13 @@
         <v>12</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>13</v>
@@ -1113,7 +1189,7 @@
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
     </row>
-    <row r="16" spans="1:13" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="5" customFormat="1" ht="34.5" customHeight="1">
       <c r="A16" s="4">
         <v>0.58333333333333304</v>
       </c>
@@ -1139,7 +1215,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="5" customFormat="1" ht="34.5" customHeight="1">
       <c r="A17" s="4">
         <v>0.625</v>
       </c>
@@ -1165,7 +1241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="5" customFormat="1" ht="34.5" customHeight="1">
       <c r="A18" s="4">
         <v>0.66666666666666696</v>
       </c>
@@ -1191,7 +1267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="5" customFormat="1" ht="34.5" customHeight="1">
       <c r="A19" s="4">
         <v>0.70833333333333304</v>
       </c>
@@ -1217,7 +1293,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="5" customFormat="1" ht="34.5" customHeight="1">
       <c r="A20" s="4">
         <v>0.75</v>
       </c>
@@ -1243,7 +1319,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="5" customFormat="1" ht="34.5" customHeight="1">
       <c r="A21" s="4">
         <v>0.79166666666666696</v>
       </c>
@@ -1269,7 +1345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="5" customFormat="1" ht="34.5" customHeight="1">
       <c r="A22" s="4">
         <v>0.83333333333333304</v>
       </c>
@@ -1295,7 +1371,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="5" customFormat="1" ht="34.5" customHeight="1">
       <c r="A23" s="4">
         <v>0.875</v>
       </c>
@@ -1321,7 +1397,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="5" customFormat="1" ht="34.5" customHeight="1">
       <c r="A24" s="4">
         <v>0.91666666666666696</v>
       </c>
@@ -1347,7 +1423,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="5" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="5" customFormat="1" ht="34.5" customHeight="1">
       <c r="A25" s="4">
         <v>0.95833333333333304</v>
       </c>
@@ -1373,22 +1449,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27" s="7"/>
       <c r="B27" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" s="8"/>
       <c r="B28" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="10"/>
       <c r="B29" s="1" t="s">
         <v>10</v>
